--- a/results/by_outcome/full_results_education_observed.xlsx
+++ b/results/by_outcome/full_results_education_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.636578570169278</v>
+        <v>0.675903707073575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.363621994933512</v>
+        <v>0.324438889402782</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00020056510279</v>
+        <v>1.00034259647636</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.363549079674978</v>
+        <v>0.324327775849591</v>
       </c>
       <c r="K2" t="n">
-        <v>0.23160389776868</v>
+        <v>0.22193824857747</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0113092485923379</v>
+        <v>0.0335030237747923</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0698201266020451</v>
+        <v>0.118471925540301</v>
       </c>
       <c r="N2" t="n">
-        <v>0.242913146361018</v>
+        <v>0.255441272352262</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.578055956919308</v>
+        <v>0.590905695261722</v>
       </c>
       <c r="G3" t="n">
-        <v>0.231650349428243</v>
+        <v>0.222014283839401</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.566744440086364</v>
+        <v>0.557391193469037</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205784021121388</v>
+        <v>0.201500591105355</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.433369206277023</v>
+        <v>0.442799701389892</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.363549079674978</v>
+        <v>0.324327775849591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.308517991863549</v>
+        <v>0.264162236920513</v>
       </c>
       <c r="E2" t="n">
-        <v>0.418580167486406</v>
+        <v>0.38449331477867</v>
       </c>
       <c r="F2" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242913146361018</v>
+        <v>0.255441272352262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195708391607819</v>
+        <v>0.224022865519917</v>
       </c>
       <c r="E3" t="n">
-        <v>0.290117901114217</v>
+        <v>0.286859679184607</v>
       </c>
       <c r="F3" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.433369206277023</v>
+        <v>0.442799701389892</v>
       </c>
       <c r="D4" t="n">
-        <v>0.381112912009006</v>
+        <v>0.398893516647061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48562550054504</v>
+        <v>0.486705886132722</v>
       </c>
       <c r="F4" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed.xlsx
+++ b/results/by_outcome/full_results_education_observed.xlsx
@@ -597,10 +597,10 @@
         <v>0.324327775849591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.264162236920513</v>
+        <v>0.266347322993771</v>
       </c>
       <c r="E2" t="n">
-        <v>0.38449331477867</v>
+        <v>0.382308228705411</v>
       </c>
       <c r="F2" t="n">
         <v>948</v>
@@ -617,10 +617,10 @@
         <v>0.255441272352262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224022865519917</v>
+        <v>0.171051162687793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.286859679184607</v>
+        <v>0.339831382016731</v>
       </c>
       <c r="F3" t="n">
         <v>948</v>
@@ -637,10 +637,10 @@
         <v>0.442799701389892</v>
       </c>
       <c r="D4" t="n">
-        <v>0.398893516647061</v>
+        <v>0.390697967538696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.486705886132722</v>
+        <v>0.494901435241087</v>
       </c>
       <c r="F4" t="n">
         <v>948</v>

--- a/results/by_outcome/full_results_education_observed.xlsx
+++ b/results/by_outcome/full_results_education_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.675903707073575</v>
+        <v>0.636578570154257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.324438889402782</v>
+        <v>0.363621994957094</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00034259647636</v>
+        <v>1.00020056511135</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.324327775849591</v>
+        <v>0.363549079695444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.22193824857747</v>
+        <v>0.231603897758933</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0335030237747923</v>
+        <v>0.011309248626347</v>
       </c>
       <c r="M2" t="n">
-        <v>0.118471925540301</v>
+        <v>0.069820126614989</v>
       </c>
       <c r="N2" t="n">
-        <v>0.255441272352262</v>
+        <v>0.24291314638528</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.590905695261722</v>
+        <v>0.578055956924856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.222014283839401</v>
+        <v>0.231650349420476</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.557391193469037</v>
+        <v>0.566744440057799</v>
       </c>
       <c r="I4" t="n">
-        <v>0.201500591105355</v>
+        <v>0.205784021159984</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.442799701389892</v>
+        <v>0.433369206310433</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324327775849591</v>
+        <v>0.363549079695444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266347322993771</v>
+        <v>0.291080544602235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.382308228705411</v>
+        <v>0.436017614788652</v>
       </c>
       <c r="F2" t="n">
-        <v>948</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.255441272352262</v>
+        <v>0.24291314638528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.171051162687793</v>
+        <v>0.199449466128697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.339831382016731</v>
+        <v>0.286376826641863</v>
       </c>
       <c r="F3" t="n">
-        <v>948</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.442799701389892</v>
+        <v>0.433369206310433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.390697967538696</v>
+        <v>0.364139203041323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.494901435241087</v>
+        <v>0.502599209579543</v>
       </c>
       <c r="F4" t="n">
-        <v>948</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
